--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:G363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9442,12 +9442,87 @@
         <v>0.307</v>
       </c>
       <c r="E360" t="n">
-        <v>0.3066</v>
+        <v>0.3058</v>
       </c>
       <c r="F360" t="n">
-        <v>0.307</v>
+        <v>0.30637</v>
       </c>
       <c r="G360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKWD</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.3063</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.3078</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.30585</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.3078</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKWD</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.3078</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.3078</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.3038</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.3074</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKWD</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.3074</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.3074</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.30685</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.30685</v>
+      </c>
+      <c r="G363" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
@@ -9517,10 +9517,10 @@
         <v>0.3074</v>
       </c>
       <c r="E363" t="n">
-        <v>0.30685</v>
+        <v>0.3061</v>
       </c>
       <c r="F363" t="n">
-        <v>0.30685</v>
+        <v>0.3061</v>
       </c>
       <c r="G363" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G363"/>
+  <dimension ref="A1:G364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>34425.33333333334</v>
+        <v>34425.375</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>34610.33333333334</v>
+        <v>34610.375</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>34974.33333333334</v>
+        <v>34974.375</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>35156.33333333334</v>
+        <v>35156.375</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>35521.33333333334</v>
+        <v>35521.375</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>35886.33333333334</v>
+        <v>35886.375</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -9520,9 +9520,34 @@
         <v>0.3061</v>
       </c>
       <c r="F363" t="n">
-        <v>0.3061</v>
+        <v>0.307</v>
       </c>
       <c r="G363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKWD</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.3075</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.30785</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.3072</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0.3072</v>
+      </c>
+      <c r="G364" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>34425.375</v>
+        <v>34425.33333333334</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>34610.375</v>
+        <v>34610.33333333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>34974.375</v>
+        <v>34974.33333333334</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>35156.375</v>
+        <v>35156.33333333334</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>35521.375</v>
+        <v>35521.33333333334</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>0.3072</v>
       </c>
       <c r="F364" t="n">
-        <v>0.3072</v>
+        <v>0.3078</v>
       </c>
       <c r="G364" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
@@ -9539,13 +9539,13 @@
         <v>0.3075</v>
       </c>
       <c r="D364" t="n">
-        <v>0.30785</v>
+        <v>0.3084</v>
       </c>
       <c r="E364" t="n">
         <v>0.3072</v>
       </c>
       <c r="F364" t="n">
-        <v>0.3078</v>
+        <v>0.3084</v>
       </c>
       <c r="G364" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G364"/>
+  <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9539,15 +9539,90 @@
         <v>0.3075</v>
       </c>
       <c r="D364" t="n">
-        <v>0.3084</v>
+        <v>0.3085</v>
       </c>
       <c r="E364" t="n">
         <v>0.3072</v>
       </c>
       <c r="F364" t="n">
-        <v>0.3084</v>
+        <v>0.3082</v>
       </c>
       <c r="G364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKWD</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.3082</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.3092</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.3081</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.30887</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKWD</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.3094</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.30899</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.3092</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDKWD</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.3092</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.3092</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.3085</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.3088</v>
+      </c>
+      <c r="G367" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
@@ -9617,10 +9617,10 @@
         <v>0.3092</v>
       </c>
       <c r="E367" t="n">
-        <v>0.3085</v>
+        <v>0.308</v>
       </c>
       <c r="F367" t="n">
-        <v>0.3088</v>
+        <v>0.3083</v>
       </c>
       <c r="G367" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Kuwait_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:G368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8842,9 +8842,32 @@
         <v>0.3079</v>
       </c>
       <c r="F367">
-        <v>0.3079</v>
+        <v>0.3088</v>
       </c>
       <c r="G367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368">
+        <v>0.3088</v>
+      </c>
+      <c r="D368">
+        <v>0.3089</v>
+      </c>
+      <c r="E368">
+        <v>0.3086</v>
+      </c>
+      <c r="F368">
+        <v>0.3086</v>
+      </c>
+      <c r="G368">
         <v>0</v>
       </c>
     </row>
